--- a/Instruments.xlsx
+++ b/Instruments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maitrijain/Library/CloudStorage/GoogleDrive-mj3002@tc.columbia.edu/My Drive/EMU/ISDP:SRCD 2022/SRCD_2023_selfregulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E33EF23-C672-624E-AED6-6984DA427664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D9B22-8AF8-F345-949F-5000639281E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" activeTab="2" xr2:uid="{69609787-2C92-0545-9F2B-97EBDFC0D10C}"/>
   </bookViews>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C37"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2572,7 +2572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
@@ -2587,7 +2587,7 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C131"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3495,7 +3495,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4031,7 +4031,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>265</v>
       </c>
